--- a/zzyTest/Staff.xlsx
+++ b/zzyTest/Staff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart Duck\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5E414-5A9E-4B38-85F1-AC85D29B67A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7812CF2-CE96-4B69-9AFC-8543D5A0473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,37 +353,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>222001</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>222002</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>222003</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>222004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>222005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>222006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>222101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>222103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>222104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>222303</v>
       </c>
     </row>
   </sheetData>
